--- a/Code/Results/Cases/Case_3_94/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_94/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002952183079114</v>
+        <v>1.031606185696898</v>
       </c>
       <c r="D2">
-        <v>1.025318452994406</v>
+        <v>1.040962096974562</v>
       </c>
       <c r="E2">
-        <v>1.018776531657843</v>
+        <v>1.041161578228174</v>
       </c>
       <c r="F2">
-        <v>1.029113212422398</v>
+        <v>1.052119757537961</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049366565612269</v>
+        <v>1.035219596958237</v>
       </c>
       <c r="J2">
-        <v>1.025044951977426</v>
+        <v>1.036740985899744</v>
       </c>
       <c r="K2">
-        <v>1.036435979933219</v>
+        <v>1.043742960062516</v>
       </c>
       <c r="L2">
-        <v>1.029980333381174</v>
+        <v>1.043941876243726</v>
       </c>
       <c r="M2">
-        <v>1.040181323349084</v>
+        <v>1.054869371120294</v>
       </c>
       <c r="N2">
-        <v>1.01227847793013</v>
+        <v>1.016236842976457</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007141759145471</v>
+        <v>1.032493531424212</v>
       </c>
       <c r="D3">
-        <v>1.02858321557501</v>
+        <v>1.041662918549766</v>
       </c>
       <c r="E3">
-        <v>1.022250196041408</v>
+        <v>1.041946912461114</v>
       </c>
       <c r="F3">
-        <v>1.032951772690451</v>
+        <v>1.052983389296652</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05053128201297</v>
+        <v>1.035376533910007</v>
       </c>
       <c r="J3">
-        <v>1.027439608056034</v>
+        <v>1.037270593465257</v>
       </c>
       <c r="K3">
-        <v>1.03886297863918</v>
+        <v>1.044254600510251</v>
       </c>
       <c r="L3">
-        <v>1.032606081919258</v>
+        <v>1.044537848008832</v>
       </c>
       <c r="M3">
-        <v>1.043179699586187</v>
+        <v>1.055545654497446</v>
       </c>
       <c r="N3">
-        <v>1.013076078924867</v>
+        <v>1.016412576592564</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009799481105581</v>
+        <v>1.033068100219286</v>
       </c>
       <c r="D4">
-        <v>1.030653956977344</v>
+        <v>1.042116309068197</v>
       </c>
       <c r="E4">
-        <v>1.02445919994374</v>
+        <v>1.042455766023624</v>
       </c>
       <c r="F4">
-        <v>1.035391099972353</v>
+        <v>1.053542796666759</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051255062631388</v>
+        <v>1.035476280028681</v>
       </c>
       <c r="J4">
-        <v>1.028955794022089</v>
+        <v>1.037613047267762</v>
       </c>
       <c r="K4">
-        <v>1.040395974017067</v>
+        <v>1.044584904017686</v>
       </c>
       <c r="L4">
-        <v>1.034271121168942</v>
+        <v>1.044923513636158</v>
       </c>
       <c r="M4">
-        <v>1.045080355263966</v>
+        <v>1.055983192204669</v>
       </c>
       <c r="N4">
-        <v>1.013581023382163</v>
+        <v>1.016526184417041</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010904464484915</v>
+        <v>1.033309742567845</v>
       </c>
       <c r="D5">
-        <v>1.031514768311953</v>
+        <v>1.042306891648566</v>
       </c>
       <c r="E5">
-        <v>1.025378887359701</v>
+        <v>1.042669851531046</v>
       </c>
       <c r="F5">
-        <v>1.036406268614187</v>
+        <v>1.053778108552016</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051552313939101</v>
+        <v>1.0355177808842</v>
       </c>
       <c r="J5">
-        <v>1.029585440771255</v>
+        <v>1.037756956744562</v>
       </c>
       <c r="K5">
-        <v>1.041031703843725</v>
+        <v>1.044723579778799</v>
       </c>
       <c r="L5">
-        <v>1.03496319381285</v>
+        <v>1.045085653802188</v>
       </c>
       <c r="M5">
-        <v>1.045870196954998</v>
+        <v>1.056167116457187</v>
       </c>
       <c r="N5">
-        <v>1.01379070210483</v>
+        <v>1.016573919922571</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011089285183609</v>
+        <v>1.033350320832194</v>
       </c>
       <c r="D6">
-        <v>1.031658739566412</v>
+        <v>1.042338889914785</v>
       </c>
       <c r="E6">
-        <v>1.025532788494639</v>
+        <v>1.04270580696707</v>
       </c>
       <c r="F6">
-        <v>1.036576123597008</v>
+        <v>1.053817626435981</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051601815233904</v>
+        <v>1.035524723678153</v>
       </c>
       <c r="J6">
-        <v>1.029690712464196</v>
+        <v>1.037781116337035</v>
       </c>
       <c r="K6">
-        <v>1.041137939297834</v>
+        <v>1.044746853228648</v>
       </c>
       <c r="L6">
-        <v>1.035078938473524</v>
+        <v>1.045112878182185</v>
       </c>
       <c r="M6">
-        <v>1.046002283079765</v>
+        <v>1.05619799712989</v>
       </c>
       <c r="N6">
-        <v>1.013825757626843</v>
+        <v>1.016581933432398</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009814293830237</v>
+        <v>1.033071328689993</v>
       </c>
       <c r="D7">
-        <v>1.030665497052344</v>
+        <v>1.042118855733739</v>
       </c>
       <c r="E7">
-        <v>1.024471523760509</v>
+        <v>1.042458626004436</v>
       </c>
       <c r="F7">
-        <v>1.035404704855127</v>
+        <v>1.053545940379531</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051259061964379</v>
+        <v>1.035476836265331</v>
       </c>
       <c r="J7">
-        <v>1.028964237593505</v>
+        <v>1.037614970423043</v>
       </c>
       <c r="K7">
-        <v>1.040404502732581</v>
+        <v>1.044586757734093</v>
       </c>
       <c r="L7">
-        <v>1.034280399461834</v>
+        <v>1.04492568013778</v>
       </c>
       <c r="M7">
-        <v>1.045090944955482</v>
+        <v>1.055985649876717</v>
       </c>
       <c r="N7">
-        <v>1.013583835243607</v>
+        <v>1.016526822360855</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004379345354877</v>
+        <v>1.031905985367006</v>
       </c>
       <c r="D8">
-        <v>1.026430613955015</v>
+        <v>1.041198960058566</v>
       </c>
       <c r="E8">
-        <v>1.019958659039499</v>
+        <v>1.041426841778992</v>
       </c>
       <c r="F8">
-        <v>1.030419880789886</v>
+        <v>1.052411504789695</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049766448560703</v>
+        <v>1.035273007250631</v>
       </c>
       <c r="J8">
-        <v>1.025861270339778</v>
+        <v>1.036920017757826</v>
       </c>
       <c r="K8">
-        <v>1.037264082879184</v>
+        <v>1.043916028305355</v>
       </c>
       <c r="L8">
-        <v>1.030874897552746</v>
+        <v>1.044143280255795</v>
       </c>
       <c r="M8">
-        <v>1.041202977232248</v>
+        <v>1.055097936338611</v>
       </c>
       <c r="N8">
-        <v>1.012550384829102</v>
+        <v>1.016296254164303</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9943749707318067</v>
+        <v>1.029855600337107</v>
       </c>
       <c r="D9">
-        <v>1.018635296937974</v>
+        <v>1.039577390051027</v>
       </c>
       <c r="E9">
-        <v>1.011696657515695</v>
+        <v>1.039614062745056</v>
       </c>
       <c r="F9">
-        <v>1.021280039237384</v>
+        <v>1.050417004548839</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046901581131427</v>
+        <v>1.034900067044837</v>
       </c>
       <c r="J9">
-        <v>1.020127939025209</v>
+        <v>1.035693654375954</v>
       </c>
       <c r="K9">
-        <v>1.031433095402084</v>
+        <v>1.042728341915022</v>
       </c>
       <c r="L9">
-        <v>1.024602772824797</v>
+        <v>1.042764895882822</v>
       </c>
       <c r="M9">
-        <v>1.034037045972237</v>
+        <v>1.053533258480599</v>
       </c>
       <c r="N9">
-        <v>1.010640500061742</v>
+        <v>1.015889189087978</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9873888260298183</v>
+        <v>1.028490840226023</v>
       </c>
       <c r="D10">
-        <v>1.013195451080875</v>
+        <v>1.038496045458855</v>
       </c>
       <c r="E10">
-        <v>1.005960533804974</v>
+        <v>1.038409243453819</v>
       </c>
       <c r="F10">
-        <v>1.014924889533503</v>
+        <v>1.049090482714645</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044825047461178</v>
+        <v>1.034642234712938</v>
       </c>
       <c r="J10">
-        <v>1.01611189009486</v>
+        <v>1.034874960298546</v>
       </c>
       <c r="K10">
-        <v>1.027330475827495</v>
+        <v>1.041932749597657</v>
       </c>
       <c r="L10">
-        <v>1.020222996520045</v>
+        <v>1.04184625611237</v>
       </c>
       <c r="M10">
-        <v>1.029029799707354</v>
+        <v>1.05248995339569</v>
       </c>
       <c r="N10">
-        <v>1.009302543459627</v>
+        <v>1.015617316837333</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9842816165846132</v>
+        <v>1.027900413606421</v>
       </c>
       <c r="D11">
-        <v>1.010777717808772</v>
+        <v>1.038027762150748</v>
       </c>
       <c r="E11">
-        <v>1.003417862194597</v>
+        <v>1.037888441629844</v>
       </c>
       <c r="F11">
-        <v>1.012105495873512</v>
+        <v>1.048516852165605</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043884232039806</v>
+        <v>1.034528417583884</v>
       </c>
       <c r="J11">
-        <v>1.014323240561654</v>
+        <v>1.034520206040079</v>
       </c>
       <c r="K11">
-        <v>1.02549920465239</v>
+        <v>1.041587364696429</v>
       </c>
       <c r="L11">
-        <v>1.018275609204117</v>
+        <v>1.041448558506805</v>
       </c>
       <c r="M11">
-        <v>1.026802674976015</v>
+        <v>1.052038165568872</v>
       </c>
       <c r="N11">
-        <v>1.008706647926898</v>
+        <v>1.015499480862956</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9831144710820678</v>
+        <v>1.027681182812166</v>
       </c>
       <c r="D12">
-        <v>1.009869893301665</v>
+        <v>1.037853814481896</v>
       </c>
       <c r="E12">
-        <v>1.00246411864385</v>
+        <v>1.03769512843948</v>
       </c>
       <c r="F12">
-        <v>1.011047601018827</v>
+        <v>1.048303896506251</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043528316161707</v>
+        <v>1.034485815022272</v>
       </c>
       <c r="J12">
-        <v>1.013651056676625</v>
+        <v>1.03438839745619</v>
       </c>
       <c r="K12">
-        <v>1.024810413528085</v>
+        <v>1.041458941264257</v>
       </c>
       <c r="L12">
-        <v>1.017544261806941</v>
+        <v>1.041300849150482</v>
       </c>
       <c r="M12">
-        <v>1.025966163546679</v>
+        <v>1.051870348479745</v>
       </c>
       <c r="N12">
-        <v>1.008482709350987</v>
+        <v>1.015455694698734</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9833654263953753</v>
+        <v>1.027728204923541</v>
       </c>
       <c r="D13">
-        <v>1.010065073908119</v>
+        <v>1.037891127109488</v>
       </c>
       <c r="E13">
-        <v>1.002669127179537</v>
+        <v>1.037736588603533</v>
       </c>
       <c r="F13">
-        <v>1.011275013117762</v>
+        <v>1.048349570928498</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043604956719617</v>
+        <v>1.034494968147067</v>
       </c>
       <c r="J13">
-        <v>1.013795601007807</v>
+        <v>1.034416672503312</v>
       </c>
       <c r="K13">
-        <v>1.02495855533527</v>
+        <v>1.041486494482868</v>
       </c>
       <c r="L13">
-        <v>1.017701506262293</v>
+        <v>1.04133253268875</v>
       </c>
       <c r="M13">
-        <v>1.026146023756555</v>
+        <v>1.051906345925457</v>
       </c>
       <c r="N13">
-        <v>1.008530864270824</v>
+        <v>1.015465087725796</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9841854088398501</v>
+        <v>1.027882290282352</v>
       </c>
       <c r="D14">
-        <v>1.01070287858855</v>
+        <v>1.038013383702831</v>
       </c>
       <c r="E14">
-        <v>1.00333921741372</v>
+        <v>1.037872459521502</v>
       </c>
       <c r="F14">
-        <v>1.012018270109847</v>
+        <v>1.048499246802379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043854944782518</v>
+        <v>1.034524902684645</v>
       </c>
       <c r="J14">
-        <v>1.014267838770132</v>
+        <v>1.034509311450716</v>
       </c>
       <c r="K14">
-        <v>1.025442445948403</v>
+        <v>1.041576751862583</v>
       </c>
       <c r="L14">
-        <v>1.018215321130755</v>
+        <v>1.041436348527692</v>
       </c>
       <c r="M14">
-        <v>1.026733719951566</v>
+        <v>1.052024293807902</v>
       </c>
       <c r="N14">
-        <v>1.008688190720681</v>
+        <v>1.015495861821952</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9846888858149115</v>
+        <v>1.027977237988887</v>
       </c>
       <c r="D15">
-        <v>1.011094543403618</v>
+        <v>1.038088709228197</v>
       </c>
       <c r="E15">
-        <v>1.003750838708991</v>
+        <v>1.037956192121919</v>
       </c>
       <c r="F15">
-        <v>1.012474789189813</v>
+        <v>1.048591482507382</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044008109237611</v>
+        <v>1.034543303192123</v>
       </c>
       <c r="J15">
-        <v>1.014557756049414</v>
+        <v>1.034566384487686</v>
       </c>
       <c r="K15">
-        <v>1.025739440027637</v>
+        <v>1.041632344948251</v>
       </c>
       <c r="L15">
-        <v>1.018530828320646</v>
+        <v>1.041500314685954</v>
       </c>
       <c r="M15">
-        <v>1.027094579759387</v>
+        <v>1.05209696504196</v>
       </c>
       <c r="N15">
-        <v>1.008784777282441</v>
+        <v>1.015514820566128</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9875932560715421</v>
+        <v>1.028530036036113</v>
       </c>
       <c r="D16">
-        <v>1.013354561470901</v>
+        <v>1.038527122888891</v>
       </c>
       <c r="E16">
-        <v>1.006128005302761</v>
+        <v>1.038443826308616</v>
       </c>
       <c r="F16">
-        <v>1.015110538223964</v>
+        <v>1.049128568893283</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044886592073935</v>
+        <v>1.034649742645993</v>
       </c>
       <c r="J16">
-        <v>1.016229522036211</v>
+        <v>1.034898498910491</v>
       </c>
       <c r="K16">
-        <v>1.027450827875892</v>
+        <v>1.041955653057429</v>
       </c>
       <c r="L16">
-        <v>1.020351135968281</v>
+        <v>1.041872651778328</v>
       </c>
       <c r="M16">
-        <v>1.029176330893495</v>
+        <v>1.052519936566028</v>
       </c>
       <c r="N16">
-        <v>1.009341733152576</v>
+        <v>1.015625134867078</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9893926509146019</v>
+        <v>1.028876932716106</v>
       </c>
       <c r="D17">
-        <v>1.014755258723301</v>
+        <v>1.038802114956963</v>
       </c>
       <c r="E17">
-        <v>1.007603073817676</v>
+        <v>1.038749946566869</v>
       </c>
       <c r="F17">
-        <v>1.016745443434454</v>
+        <v>1.049465674290393</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045426352601417</v>
+        <v>1.034715927828151</v>
       </c>
       <c r="J17">
-        <v>1.017264646432784</v>
+        <v>1.035106758239078</v>
       </c>
       <c r="K17">
-        <v>1.028509428163565</v>
+        <v>1.042158218847941</v>
       </c>
       <c r="L17">
-        <v>1.021479094072457</v>
+        <v>1.042106231197576</v>
       </c>
       <c r="M17">
-        <v>1.030466099467218</v>
+        <v>1.052785248505926</v>
       </c>
       <c r="N17">
-        <v>1.009686590240023</v>
+        <v>1.015694302020794</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9904343257598194</v>
+        <v>1.029079322105676</v>
       </c>
       <c r="D18">
-        <v>1.015566285745181</v>
+        <v>1.038962507856792</v>
       </c>
       <c r="E18">
-        <v>1.008457804801194</v>
+        <v>1.038928587373882</v>
       </c>
       <c r="F18">
-        <v>1.01769257127005</v>
+        <v>1.049662375584582</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045737179832261</v>
+        <v>1.034754322708828</v>
       </c>
       <c r="J18">
-        <v>1.017863648040024</v>
+        <v>1.035228207766693</v>
       </c>
       <c r="K18">
-        <v>1.02912162759516</v>
+        <v>1.042276286260787</v>
       </c>
       <c r="L18">
-        <v>1.022132125258679</v>
+        <v>1.042242481702317</v>
       </c>
       <c r="M18">
-        <v>1.031212739827212</v>
+        <v>1.05293999749169</v>
       </c>
       <c r="N18">
-        <v>1.009886150342698</v>
+        <v>1.015734635072906</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9907881920005708</v>
+        <v>1.029148340171071</v>
       </c>
       <c r="D19">
-        <v>1.015841823674637</v>
+        <v>1.039017196736062</v>
       </c>
       <c r="E19">
-        <v>1.008748300128248</v>
+        <v>1.038989513816085</v>
       </c>
       <c r="F19">
-        <v>1.018014431983676</v>
+        <v>1.049729458042217</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045842490144508</v>
+        <v>1.034767378757704</v>
       </c>
       <c r="J19">
-        <v>1.018067093092736</v>
+        <v>1.035269614706797</v>
       </c>
       <c r="K19">
-        <v>1.029329488879441</v>
+        <v>1.042316529605942</v>
       </c>
       <c r="L19">
-        <v>1.0223539732953</v>
+        <v>1.042288940849683</v>
       </c>
       <c r="M19">
-        <v>1.031466376655235</v>
+        <v>1.052992762345318</v>
       </c>
       <c r="N19">
-        <v>1.009953928843186</v>
+        <v>1.015748385726605</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9892004126516355</v>
+        <v>1.028839708760286</v>
       </c>
       <c r="D20">
-        <v>1.014605598235648</v>
+        <v>1.038772611448555</v>
       </c>
       <c r="E20">
-        <v>1.007445400542262</v>
+        <v>1.038717093848838</v>
       </c>
       <c r="F20">
-        <v>1.01657070779901</v>
+        <v>1.04942949846475</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045368857134441</v>
+        <v>1.03470884848088</v>
       </c>
       <c r="J20">
-        <v>1.017154083021555</v>
+        <v>1.035084416521797</v>
       </c>
       <c r="K20">
-        <v>1.028396397267908</v>
+        <v>1.042136494319204</v>
       </c>
       <c r="L20">
-        <v>1.021358582870347</v>
+        <v>1.042081169542869</v>
       </c>
       <c r="M20">
-        <v>1.030328307745888</v>
+        <v>1.052756783342979</v>
       </c>
       <c r="N20">
-        <v>1.009649755487852</v>
+        <v>1.015686882172339</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.983944308422219</v>
+        <v>1.027836913767546</v>
       </c>
       <c r="D21">
-        <v>1.010515334226251</v>
+        <v>1.037977382346177</v>
       </c>
       <c r="E21">
-        <v>1.003142152396667</v>
+        <v>1.037832445160794</v>
       </c>
       <c r="F21">
-        <v>1.011799697475216</v>
+        <v>1.048455167764421</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043781509359191</v>
+        <v>1.034516096696946</v>
       </c>
       <c r="J21">
-        <v>1.01412899464682</v>
+        <v>1.034482032603387</v>
       </c>
       <c r="K21">
-        <v>1.025300191796211</v>
+        <v>1.041550176949804</v>
       </c>
       <c r="L21">
-        <v>1.018064239262553</v>
+        <v>1.041405776974693</v>
       </c>
       <c r="M21">
-        <v>1.026560916988019</v>
+        <v>1.051989561166311</v>
       </c>
       <c r="N21">
-        <v>1.008641934594173</v>
+        <v>1.015486800073587</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9805640820564561</v>
+        <v>1.027206879906832</v>
       </c>
       <c r="D22">
-        <v>1.00788686538846</v>
+        <v>1.03747735407185</v>
       </c>
       <c r="E22">
-        <v>1.00038259093686</v>
+        <v>1.03727701790515</v>
       </c>
       <c r="F22">
-        <v>1.008738108508736</v>
+        <v>1.047843240938209</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042746026913068</v>
+        <v>1.034393021349787</v>
       </c>
       <c r="J22">
-        <v>1.012181691318264</v>
+        <v>1.034103076093559</v>
       </c>
       <c r="K22">
-        <v>1.023303684488156</v>
+        <v>1.041180772307618</v>
       </c>
       <c r="L22">
-        <v>1.015946472434308</v>
+        <v>1.04098120811561</v>
       </c>
       <c r="M22">
-        <v>1.024138426748689</v>
+        <v>1.051507161667335</v>
       </c>
       <c r="N22">
-        <v>1.007993195768271</v>
+        <v>1.015360904466469</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.982363387904809</v>
+        <v>1.027540828445229</v>
       </c>
       <c r="D23">
-        <v>1.009285793381003</v>
+        <v>1.037742431380906</v>
       </c>
       <c r="E23">
-        <v>1.001850751624277</v>
+        <v>1.037571385302652</v>
       </c>
       <c r="F23">
-        <v>1.010367152259954</v>
+        <v>1.048167570494539</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04329857471882</v>
+        <v>1.034458444293364</v>
       </c>
       <c r="J23">
-        <v>1.013218406779868</v>
+        <v>1.034303987994553</v>
       </c>
       <c r="K23">
-        <v>1.024366910876139</v>
+        <v>1.041376672637164</v>
       </c>
       <c r="L23">
-        <v>1.017073670010869</v>
+        <v>1.041206272344546</v>
       </c>
       <c r="M23">
-        <v>1.025427873204678</v>
+        <v>1.05176289182727</v>
       </c>
       <c r="N23">
-        <v>1.008338572609015</v>
+        <v>1.015427653076148</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9892873011578751</v>
+        <v>1.028856528507941</v>
       </c>
       <c r="D24">
-        <v>1.014673241805401</v>
+        <v>1.038785942830665</v>
       </c>
       <c r="E24">
-        <v>1.007516663742182</v>
+        <v>1.038731938312323</v>
       </c>
       <c r="F24">
-        <v>1.016649683315386</v>
+        <v>1.049445844536523</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045394849226431</v>
+        <v>1.034712047981555</v>
       </c>
       <c r="J24">
-        <v>1.017204056581049</v>
+        <v>1.03509451185832</v>
       </c>
       <c r="K24">
-        <v>1.028447487307635</v>
+        <v>1.042146310963815</v>
       </c>
       <c r="L24">
-        <v>1.021413051774325</v>
+        <v>1.042092493802575</v>
       </c>
       <c r="M24">
-        <v>1.030390587355244</v>
+        <v>1.05276964553421</v>
       </c>
       <c r="N24">
-        <v>1.009666404430011</v>
+        <v>1.015690234916436</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9970148821290453</v>
+        <v>1.030385298566936</v>
       </c>
       <c r="D25">
-        <v>1.020691926012828</v>
+        <v>1.039996664790262</v>
       </c>
       <c r="E25">
-        <v>1.013871264514748</v>
+        <v>1.040082064615537</v>
       </c>
       <c r="F25">
-        <v>1.023687334830118</v>
+        <v>1.050932084072718</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047670904811485</v>
+        <v>1.034998107275298</v>
       </c>
       <c r="J25">
-        <v>1.021643126718984</v>
+        <v>1.036010900973507</v>
       </c>
       <c r="K25">
-        <v>1.032977299170111</v>
+        <v>1.043036063294843</v>
       </c>
       <c r="L25">
-        <v>1.026257996671569</v>
+        <v>1.043121197117751</v>
       </c>
       <c r="M25">
-        <v>1.035928736170898</v>
+        <v>1.053937804749991</v>
       </c>
       <c r="N25">
-        <v>1.011145270792211</v>
+        <v>1.015994514345815</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_94/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_94/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031606185696898</v>
+        <v>1.002952183079114</v>
       </c>
       <c r="D2">
-        <v>1.040962096974562</v>
+        <v>1.025318452994405</v>
       </c>
       <c r="E2">
-        <v>1.041161578228174</v>
+        <v>1.018776531657843</v>
       </c>
       <c r="F2">
-        <v>1.052119757537961</v>
+        <v>1.029113212422398</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035219596958237</v>
+        <v>1.049366565612268</v>
       </c>
       <c r="J2">
-        <v>1.036740985899744</v>
+        <v>1.025044951977426</v>
       </c>
       <c r="K2">
-        <v>1.043742960062516</v>
+        <v>1.036435979933219</v>
       </c>
       <c r="L2">
-        <v>1.043941876243726</v>
+        <v>1.029980333381174</v>
       </c>
       <c r="M2">
-        <v>1.054869371120294</v>
+        <v>1.040181323349083</v>
       </c>
       <c r="N2">
-        <v>1.016236842976457</v>
+        <v>1.01227847793013</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032493531424212</v>
+        <v>1.007141759145471</v>
       </c>
       <c r="D3">
-        <v>1.041662918549766</v>
+        <v>1.02858321557501</v>
       </c>
       <c r="E3">
-        <v>1.041946912461114</v>
+        <v>1.022250196041408</v>
       </c>
       <c r="F3">
-        <v>1.052983389296652</v>
+        <v>1.032951772690451</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035376533910007</v>
+        <v>1.05053128201297</v>
       </c>
       <c r="J3">
-        <v>1.037270593465257</v>
+        <v>1.027439608056034</v>
       </c>
       <c r="K3">
-        <v>1.044254600510251</v>
+        <v>1.03886297863918</v>
       </c>
       <c r="L3">
-        <v>1.044537848008832</v>
+        <v>1.032606081919257</v>
       </c>
       <c r="M3">
-        <v>1.055545654497446</v>
+        <v>1.043179699586186</v>
       </c>
       <c r="N3">
-        <v>1.016412576592564</v>
+        <v>1.013076078924867</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033068100219286</v>
+        <v>1.009799481105582</v>
       </c>
       <c r="D4">
-        <v>1.042116309068197</v>
+        <v>1.030653956977345</v>
       </c>
       <c r="E4">
-        <v>1.042455766023624</v>
+        <v>1.024459199943741</v>
       </c>
       <c r="F4">
-        <v>1.053542796666759</v>
+        <v>1.035391099972354</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035476280028681</v>
+        <v>1.051255062631389</v>
       </c>
       <c r="J4">
-        <v>1.037613047267762</v>
+        <v>1.02895579402209</v>
       </c>
       <c r="K4">
-        <v>1.044584904017686</v>
+        <v>1.040395974017067</v>
       </c>
       <c r="L4">
-        <v>1.044923513636158</v>
+        <v>1.034271121168942</v>
       </c>
       <c r="M4">
-        <v>1.055983192204669</v>
+        <v>1.045080355263966</v>
       </c>
       <c r="N4">
-        <v>1.016526184417041</v>
+        <v>1.013581023382164</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033309742567845</v>
+        <v>1.010904464484914</v>
       </c>
       <c r="D5">
-        <v>1.042306891648566</v>
+        <v>1.031514768311951</v>
       </c>
       <c r="E5">
-        <v>1.042669851531046</v>
+        <v>1.025378887359699</v>
       </c>
       <c r="F5">
-        <v>1.053778108552016</v>
+        <v>1.036406268614185</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0355177808842</v>
+        <v>1.051552313939101</v>
       </c>
       <c r="J5">
-        <v>1.037756956744562</v>
+        <v>1.029585440771253</v>
       </c>
       <c r="K5">
-        <v>1.044723579778799</v>
+        <v>1.041031703843724</v>
       </c>
       <c r="L5">
-        <v>1.045085653802188</v>
+        <v>1.034963193812849</v>
       </c>
       <c r="M5">
-        <v>1.056167116457187</v>
+        <v>1.045870196954996</v>
       </c>
       <c r="N5">
-        <v>1.016573919922571</v>
+        <v>1.013790702104829</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033350320832194</v>
+        <v>1.011089285183609</v>
       </c>
       <c r="D6">
-        <v>1.042338889914785</v>
+        <v>1.031658739566412</v>
       </c>
       <c r="E6">
-        <v>1.04270580696707</v>
+        <v>1.025532788494639</v>
       </c>
       <c r="F6">
-        <v>1.053817626435981</v>
+        <v>1.036576123597007</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035524723678153</v>
+        <v>1.051601815233903</v>
       </c>
       <c r="J6">
-        <v>1.037781116337035</v>
+        <v>1.029690712464196</v>
       </c>
       <c r="K6">
-        <v>1.044746853228648</v>
+        <v>1.041137939297833</v>
       </c>
       <c r="L6">
-        <v>1.045112878182185</v>
+        <v>1.035078938473523</v>
       </c>
       <c r="M6">
-        <v>1.05619799712989</v>
+        <v>1.046002283079764</v>
       </c>
       <c r="N6">
-        <v>1.016581933432398</v>
+        <v>1.013825757626843</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033071328689993</v>
+        <v>1.009814293830236</v>
       </c>
       <c r="D7">
-        <v>1.042118855733739</v>
+        <v>1.030665497052344</v>
       </c>
       <c r="E7">
-        <v>1.042458626004436</v>
+        <v>1.024471523760509</v>
       </c>
       <c r="F7">
-        <v>1.053545940379531</v>
+        <v>1.035404704855127</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035476836265331</v>
+        <v>1.051259061964379</v>
       </c>
       <c r="J7">
-        <v>1.037614970423043</v>
+        <v>1.028964237593504</v>
       </c>
       <c r="K7">
-        <v>1.044586757734093</v>
+        <v>1.040404502732581</v>
       </c>
       <c r="L7">
-        <v>1.04492568013778</v>
+        <v>1.034280399461834</v>
       </c>
       <c r="M7">
-        <v>1.055985649876717</v>
+        <v>1.045090944955482</v>
       </c>
       <c r="N7">
-        <v>1.016526822360855</v>
+        <v>1.013583835243607</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031905985367006</v>
+        <v>1.004379345354876</v>
       </c>
       <c r="D8">
-        <v>1.041198960058566</v>
+        <v>1.026430613955015</v>
       </c>
       <c r="E8">
-        <v>1.041426841778992</v>
+        <v>1.019958659039498</v>
       </c>
       <c r="F8">
-        <v>1.052411504789695</v>
+        <v>1.030419880789886</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035273007250631</v>
+        <v>1.049766448560703</v>
       </c>
       <c r="J8">
-        <v>1.036920017757826</v>
+        <v>1.025861270339778</v>
       </c>
       <c r="K8">
-        <v>1.043916028305355</v>
+        <v>1.037264082879183</v>
       </c>
       <c r="L8">
-        <v>1.044143280255795</v>
+        <v>1.030874897552746</v>
       </c>
       <c r="M8">
-        <v>1.055097936338611</v>
+        <v>1.041202977232247</v>
       </c>
       <c r="N8">
-        <v>1.016296254164303</v>
+        <v>1.012550384829102</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029855600337107</v>
+        <v>0.994374970731806</v>
       </c>
       <c r="D9">
-        <v>1.039577390051027</v>
+        <v>1.018635296937974</v>
       </c>
       <c r="E9">
-        <v>1.039614062745056</v>
+        <v>1.011696657515695</v>
       </c>
       <c r="F9">
-        <v>1.050417004548839</v>
+        <v>1.021280039237384</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034900067044837</v>
+        <v>1.046901581131426</v>
       </c>
       <c r="J9">
-        <v>1.035693654375954</v>
+        <v>1.020127939025209</v>
       </c>
       <c r="K9">
-        <v>1.042728341915022</v>
+        <v>1.031433095402083</v>
       </c>
       <c r="L9">
-        <v>1.042764895882822</v>
+        <v>1.024602772824796</v>
       </c>
       <c r="M9">
-        <v>1.053533258480599</v>
+        <v>1.034037045972237</v>
       </c>
       <c r="N9">
-        <v>1.015889189087978</v>
+        <v>1.010640500061742</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028490840226023</v>
+        <v>0.9873888260298185</v>
       </c>
       <c r="D10">
-        <v>1.038496045458855</v>
+        <v>1.013195451080875</v>
       </c>
       <c r="E10">
-        <v>1.038409243453819</v>
+        <v>1.005960533804974</v>
       </c>
       <c r="F10">
-        <v>1.049090482714645</v>
+        <v>1.014924889533503</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034642234712938</v>
+        <v>1.044825047461178</v>
       </c>
       <c r="J10">
-        <v>1.034874960298546</v>
+        <v>1.01611189009486</v>
       </c>
       <c r="K10">
-        <v>1.041932749597657</v>
+        <v>1.027330475827495</v>
       </c>
       <c r="L10">
-        <v>1.04184625611237</v>
+        <v>1.020222996520045</v>
       </c>
       <c r="M10">
-        <v>1.05248995339569</v>
+        <v>1.029029799707355</v>
       </c>
       <c r="N10">
-        <v>1.015617316837333</v>
+        <v>1.009302543459627</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>1.027900413606421</v>
+        <v>0.9842816165846134</v>
       </c>
       <c r="D11">
-        <v>1.038027762150748</v>
+        <v>1.010777717808773</v>
       </c>
       <c r="E11">
-        <v>1.037888441629844</v>
+        <v>1.003417862194597</v>
       </c>
       <c r="F11">
-        <v>1.048516852165605</v>
+        <v>1.012105495873513</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034528417583884</v>
+        <v>1.043884232039807</v>
       </c>
       <c r="J11">
-        <v>1.034520206040079</v>
+        <v>1.014323240561654</v>
       </c>
       <c r="K11">
-        <v>1.041587364696429</v>
+        <v>1.02549920465239</v>
       </c>
       <c r="L11">
-        <v>1.041448558506805</v>
+        <v>1.018275609204117</v>
       </c>
       <c r="M11">
-        <v>1.052038165568872</v>
+        <v>1.026802674976016</v>
       </c>
       <c r="N11">
-        <v>1.015499480862956</v>
+        <v>1.008706647926898</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027681182812166</v>
+        <v>0.9831144710820671</v>
       </c>
       <c r="D12">
-        <v>1.037853814481896</v>
+        <v>1.009869893301664</v>
       </c>
       <c r="E12">
-        <v>1.03769512843948</v>
+        <v>1.002464118643849</v>
       </c>
       <c r="F12">
-        <v>1.048303896506251</v>
+        <v>1.011047601018826</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034485815022272</v>
+        <v>1.043528316161706</v>
       </c>
       <c r="J12">
-        <v>1.03438839745619</v>
+        <v>1.013651056676624</v>
       </c>
       <c r="K12">
-        <v>1.041458941264257</v>
+        <v>1.024810413528085</v>
       </c>
       <c r="L12">
-        <v>1.041300849150482</v>
+        <v>1.017544261806939</v>
       </c>
       <c r="M12">
-        <v>1.051870348479745</v>
+        <v>1.025966163546679</v>
       </c>
       <c r="N12">
-        <v>1.015455694698734</v>
+        <v>1.008482709350987</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027728204923541</v>
+        <v>0.9833654263953751</v>
       </c>
       <c r="D13">
-        <v>1.037891127109488</v>
+        <v>1.010065073908119</v>
       </c>
       <c r="E13">
-        <v>1.037736588603533</v>
+        <v>1.002669127179537</v>
       </c>
       <c r="F13">
-        <v>1.048349570928498</v>
+        <v>1.011275013117761</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034494968147067</v>
+        <v>1.043604956719617</v>
       </c>
       <c r="J13">
-        <v>1.034416672503312</v>
+        <v>1.013795601007807</v>
       </c>
       <c r="K13">
-        <v>1.041486494482868</v>
+        <v>1.024958555335269</v>
       </c>
       <c r="L13">
-        <v>1.04133253268875</v>
+        <v>1.017701506262292</v>
       </c>
       <c r="M13">
-        <v>1.051906345925457</v>
+        <v>1.026146023756554</v>
       </c>
       <c r="N13">
-        <v>1.015465087725796</v>
+        <v>1.008530864270824</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027882290282352</v>
+        <v>0.9841854088398487</v>
       </c>
       <c r="D14">
-        <v>1.038013383702831</v>
+        <v>1.010702878588549</v>
       </c>
       <c r="E14">
-        <v>1.037872459521502</v>
+        <v>1.003339217413719</v>
       </c>
       <c r="F14">
-        <v>1.048499246802379</v>
+        <v>1.012018270109845</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034524902684645</v>
+        <v>1.043854944782518</v>
       </c>
       <c r="J14">
-        <v>1.034509311450716</v>
+        <v>1.014267838770131</v>
       </c>
       <c r="K14">
-        <v>1.041576751862583</v>
+        <v>1.025442445948402</v>
       </c>
       <c r="L14">
-        <v>1.041436348527692</v>
+        <v>1.018215321130754</v>
       </c>
       <c r="M14">
-        <v>1.052024293807902</v>
+        <v>1.026733719951564</v>
       </c>
       <c r="N14">
-        <v>1.015495861821952</v>
+        <v>1.00868819072068</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027977237988887</v>
+        <v>0.9846888858149113</v>
       </c>
       <c r="D15">
-        <v>1.038088709228197</v>
+        <v>1.011094543403618</v>
       </c>
       <c r="E15">
-        <v>1.037956192121919</v>
+        <v>1.003750838708992</v>
       </c>
       <c r="F15">
-        <v>1.048591482507382</v>
+        <v>1.012474789189813</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034543303192123</v>
+        <v>1.044008109237611</v>
       </c>
       <c r="J15">
-        <v>1.034566384487686</v>
+        <v>1.014557756049414</v>
       </c>
       <c r="K15">
-        <v>1.041632344948251</v>
+        <v>1.025739440027637</v>
       </c>
       <c r="L15">
-        <v>1.041500314685954</v>
+        <v>1.018530828320646</v>
       </c>
       <c r="M15">
-        <v>1.05209696504196</v>
+        <v>1.027094579759387</v>
       </c>
       <c r="N15">
-        <v>1.015514820566128</v>
+        <v>1.008784777282441</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028530036036113</v>
+        <v>0.987593256071542</v>
       </c>
       <c r="D16">
-        <v>1.038527122888891</v>
+        <v>1.0133545614709</v>
       </c>
       <c r="E16">
-        <v>1.038443826308616</v>
+        <v>1.006128005302761</v>
       </c>
       <c r="F16">
-        <v>1.049128568893283</v>
+        <v>1.015110538223964</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034649742645993</v>
+        <v>1.044886592073935</v>
       </c>
       <c r="J16">
-        <v>1.034898498910491</v>
+        <v>1.016229522036211</v>
       </c>
       <c r="K16">
-        <v>1.041955653057429</v>
+        <v>1.027450827875892</v>
       </c>
       <c r="L16">
-        <v>1.041872651778328</v>
+        <v>1.020351135968281</v>
       </c>
       <c r="M16">
-        <v>1.052519936566028</v>
+        <v>1.029176330893495</v>
       </c>
       <c r="N16">
-        <v>1.015625134867078</v>
+        <v>1.009341733152576</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028876932716106</v>
+        <v>0.9893926509146019</v>
       </c>
       <c r="D17">
-        <v>1.038802114956963</v>
+        <v>1.014755258723301</v>
       </c>
       <c r="E17">
-        <v>1.038749946566869</v>
+        <v>1.007603073817676</v>
       </c>
       <c r="F17">
-        <v>1.049465674290393</v>
+        <v>1.016745443434454</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034715927828151</v>
+        <v>1.045426352601417</v>
       </c>
       <c r="J17">
-        <v>1.035106758239078</v>
+        <v>1.017264646432784</v>
       </c>
       <c r="K17">
-        <v>1.042158218847941</v>
+        <v>1.028509428163565</v>
       </c>
       <c r="L17">
-        <v>1.042106231197576</v>
+        <v>1.021479094072457</v>
       </c>
       <c r="M17">
-        <v>1.052785248505926</v>
+        <v>1.030466099467218</v>
       </c>
       <c r="N17">
-        <v>1.015694302020794</v>
+        <v>1.009686590240023</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029079322105676</v>
+        <v>0.9904343257598199</v>
       </c>
       <c r="D18">
-        <v>1.038962507856792</v>
+        <v>1.015566285745181</v>
       </c>
       <c r="E18">
-        <v>1.038928587373882</v>
+        <v>1.008457804801195</v>
       </c>
       <c r="F18">
-        <v>1.049662375584582</v>
+        <v>1.017692571270051</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034754322708828</v>
+        <v>1.045737179832261</v>
       </c>
       <c r="J18">
-        <v>1.035228207766693</v>
+        <v>1.017863648040025</v>
       </c>
       <c r="K18">
-        <v>1.042276286260787</v>
+        <v>1.02912162759516</v>
       </c>
       <c r="L18">
-        <v>1.042242481702317</v>
+        <v>1.02213212525868</v>
       </c>
       <c r="M18">
-        <v>1.05293999749169</v>
+        <v>1.031212739827213</v>
       </c>
       <c r="N18">
-        <v>1.015734635072906</v>
+        <v>1.009886150342698</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029148340171071</v>
+        <v>0.9907881920005729</v>
       </c>
       <c r="D19">
-        <v>1.039017196736062</v>
+        <v>1.015841823674639</v>
       </c>
       <c r="E19">
-        <v>1.038989513816085</v>
+        <v>1.00874830012825</v>
       </c>
       <c r="F19">
-        <v>1.049729458042217</v>
+        <v>1.018014431983678</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034767378757704</v>
+        <v>1.045842490144509</v>
       </c>
       <c r="J19">
-        <v>1.035269614706797</v>
+        <v>1.018067093092738</v>
       </c>
       <c r="K19">
-        <v>1.042316529605942</v>
+        <v>1.029329488879443</v>
       </c>
       <c r="L19">
-        <v>1.042288940849683</v>
+        <v>1.022353973295302</v>
       </c>
       <c r="M19">
-        <v>1.052992762345318</v>
+        <v>1.031466376655237</v>
       </c>
       <c r="N19">
-        <v>1.015748385726605</v>
+        <v>1.009953928843186</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028839708760286</v>
+        <v>0.9892004126516358</v>
       </c>
       <c r="D20">
-        <v>1.038772611448555</v>
+        <v>1.014605598235648</v>
       </c>
       <c r="E20">
-        <v>1.038717093848838</v>
+        <v>1.007445400542263</v>
       </c>
       <c r="F20">
-        <v>1.04942949846475</v>
+        <v>1.01657070779901</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03470884848088</v>
+        <v>1.045368857134441</v>
       </c>
       <c r="J20">
-        <v>1.035084416521797</v>
+        <v>1.017154083021556</v>
       </c>
       <c r="K20">
-        <v>1.042136494319204</v>
+        <v>1.028396397267908</v>
       </c>
       <c r="L20">
-        <v>1.042081169542869</v>
+        <v>1.021358582870347</v>
       </c>
       <c r="M20">
-        <v>1.052756783342979</v>
+        <v>1.030328307745889</v>
       </c>
       <c r="N20">
-        <v>1.015686882172339</v>
+        <v>1.009649755487852</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027836913767546</v>
+        <v>0.9839443084222185</v>
       </c>
       <c r="D21">
-        <v>1.037977382346177</v>
+        <v>1.010515334226251</v>
       </c>
       <c r="E21">
-        <v>1.037832445160794</v>
+        <v>1.003142152396666</v>
       </c>
       <c r="F21">
-        <v>1.048455167764421</v>
+        <v>1.011799697475215</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034516096696946</v>
+        <v>1.043781509359191</v>
       </c>
       <c r="J21">
-        <v>1.034482032603387</v>
+        <v>1.01412899464682</v>
       </c>
       <c r="K21">
-        <v>1.041550176949804</v>
+        <v>1.02530019179621</v>
       </c>
       <c r="L21">
-        <v>1.041405776974693</v>
+        <v>1.018064239262553</v>
       </c>
       <c r="M21">
-        <v>1.051989561166311</v>
+        <v>1.026560916988018</v>
       </c>
       <c r="N21">
-        <v>1.015486800073587</v>
+        <v>1.008641934594173</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027206879906832</v>
+        <v>0.9805640820564563</v>
       </c>
       <c r="D22">
-        <v>1.03747735407185</v>
+        <v>1.007886865388461</v>
       </c>
       <c r="E22">
-        <v>1.03727701790515</v>
+        <v>1.000382590936861</v>
       </c>
       <c r="F22">
-        <v>1.047843240938209</v>
+        <v>1.008738108508737</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034393021349787</v>
+        <v>1.042746026913068</v>
       </c>
       <c r="J22">
-        <v>1.034103076093559</v>
+        <v>1.012181691318264</v>
       </c>
       <c r="K22">
-        <v>1.041180772307618</v>
+        <v>1.023303684488156</v>
       </c>
       <c r="L22">
-        <v>1.04098120811561</v>
+        <v>1.015946472434308</v>
       </c>
       <c r="M22">
-        <v>1.051507161667335</v>
+        <v>1.024138426748689</v>
       </c>
       <c r="N22">
-        <v>1.015360904466469</v>
+        <v>1.007993195768271</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027540828445229</v>
+        <v>0.9823633879048085</v>
       </c>
       <c r="D23">
-        <v>1.037742431380906</v>
+        <v>1.009285793381002</v>
       </c>
       <c r="E23">
-        <v>1.037571385302652</v>
+        <v>1.001850751624276</v>
       </c>
       <c r="F23">
-        <v>1.048167570494539</v>
+        <v>1.010367152259953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034458444293364</v>
+        <v>1.043298574718821</v>
       </c>
       <c r="J23">
-        <v>1.034303987994553</v>
+        <v>1.013218406779868</v>
       </c>
       <c r="K23">
-        <v>1.041376672637164</v>
+        <v>1.024366910876138</v>
       </c>
       <c r="L23">
-        <v>1.041206272344546</v>
+        <v>1.017073670010869</v>
       </c>
       <c r="M23">
-        <v>1.05176289182727</v>
+        <v>1.025427873204677</v>
       </c>
       <c r="N23">
-        <v>1.015427653076148</v>
+        <v>1.008338572609015</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028856528507941</v>
+        <v>0.9892873011578757</v>
       </c>
       <c r="D24">
-        <v>1.038785942830665</v>
+        <v>1.014673241805403</v>
       </c>
       <c r="E24">
-        <v>1.038731938312323</v>
+        <v>1.007516663742183</v>
       </c>
       <c r="F24">
-        <v>1.049445844536523</v>
+        <v>1.016649683315387</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034712047981555</v>
+        <v>1.045394849226431</v>
       </c>
       <c r="J24">
-        <v>1.03509451185832</v>
+        <v>1.017204056581049</v>
       </c>
       <c r="K24">
-        <v>1.042146310963815</v>
+        <v>1.028447487307636</v>
       </c>
       <c r="L24">
-        <v>1.042092493802575</v>
+        <v>1.021413051774326</v>
       </c>
       <c r="M24">
-        <v>1.05276964553421</v>
+        <v>1.030390587355244</v>
       </c>
       <c r="N24">
-        <v>1.015690234916436</v>
+        <v>1.009666404430012</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030385298566936</v>
+        <v>0.9970148821290461</v>
       </c>
       <c r="D25">
-        <v>1.039996664790262</v>
+        <v>1.020691926012829</v>
       </c>
       <c r="E25">
-        <v>1.040082064615537</v>
+        <v>1.013871264514749</v>
       </c>
       <c r="F25">
-        <v>1.050932084072718</v>
+        <v>1.023687334830119</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034998107275298</v>
+        <v>1.047670904811485</v>
       </c>
       <c r="J25">
-        <v>1.036010900973507</v>
+        <v>1.021643126718984</v>
       </c>
       <c r="K25">
-        <v>1.043036063294843</v>
+        <v>1.032977299170112</v>
       </c>
       <c r="L25">
-        <v>1.043121197117751</v>
+        <v>1.026257996671569</v>
       </c>
       <c r="M25">
-        <v>1.053937804749991</v>
+        <v>1.035928736170898</v>
       </c>
       <c r="N25">
-        <v>1.015994514345815</v>
+        <v>1.011145270792211</v>
       </c>
     </row>
   </sheetData>
